--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Efna3-Epha3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Efna3-Epha3.xlsx
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>Efna3</t>
+  </si>
+  <si>
+    <t>Epha3</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Efna3</t>
-  </si>
-  <si>
-    <t>Epha3</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -528,19 +528,19 @@
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.06733099999999999</v>
+        <v>0.02551366666666667</v>
       </c>
       <c r="H2">
-        <v>0.134662</v>
+        <v>0.076541</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -549,34 +549,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.030493</v>
+        <v>0.107177</v>
       </c>
       <c r="N2">
-        <v>0.09147899999999999</v>
+        <v>0.321531</v>
       </c>
       <c r="O2">
-        <v>0.001018637778668347</v>
+        <v>0.003526763356587491</v>
       </c>
       <c r="P2">
-        <v>0.001021037349570579</v>
+        <v>0.003549676734010809</v>
       </c>
       <c r="Q2">
-        <v>0.002053124182999999</v>
+        <v>0.002734478252333334</v>
       </c>
       <c r="R2">
-        <v>0.012318745098</v>
+        <v>0.024610304271</v>
       </c>
       <c r="S2">
-        <v>0.001018637778668347</v>
+        <v>0.003526763356587491</v>
       </c>
       <c r="T2">
-        <v>0.001021037349570579</v>
+        <v>0.003549676734010809</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,19 +590,19 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.06733099999999999</v>
+        <v>0.02551366666666667</v>
       </c>
       <c r="H3">
-        <v>0.134662</v>
+        <v>0.076541</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>88.95964599999999</v>
       </c>
       <c r="O3">
-        <v>0.990584245483253</v>
+        <v>0.9757678722356318</v>
       </c>
       <c r="P3">
-        <v>0.9929177316168408</v>
+        <v>0.9821074349659524</v>
       </c>
       <c r="Q3">
-        <v>1.996580641608666</v>
+        <v>0.7565622516095555</v>
       </c>
       <c r="R3">
-        <v>11.979483849652</v>
+        <v>6.809060264485999</v>
       </c>
       <c r="S3">
-        <v>0.990584245483253</v>
+        <v>0.9757678722356318</v>
       </c>
       <c r="T3">
-        <v>0.9929177316168408</v>
+        <v>0.9821074349659524</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,19 +652,19 @@
         <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.06733099999999999</v>
+        <v>0.02551366666666667</v>
       </c>
       <c r="H4">
-        <v>0.134662</v>
+        <v>0.076541</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -676,31 +676,31 @@
         <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.211054</v>
+        <v>0.04072766666666667</v>
       </c>
       <c r="N4">
-        <v>0.422108</v>
+        <v>0.122183</v>
       </c>
       <c r="O4">
-        <v>0.007050391163187266</v>
+        <v>0.001340183457265176</v>
       </c>
       <c r="P4">
-        <v>0.00471133302236074</v>
+        <v>0.001348890627627329</v>
       </c>
       <c r="Q4">
-        <v>0.014210476874</v>
+        <v>0.001039112111444445</v>
       </c>
       <c r="R4">
-        <v>0.05684190749599999</v>
+        <v>0.009352009002999999</v>
       </c>
       <c r="S4">
-        <v>0.007050391163187266</v>
+        <v>0.001340183457265176</v>
       </c>
       <c r="T4">
-        <v>0.00471133302236074</v>
+        <v>0.001348890627627329</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,13 +720,13 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.06733099999999999</v>
+        <v>0.02551366666666667</v>
       </c>
       <c r="H5">
-        <v>0.134662</v>
+        <v>0.076541</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -735,34 +735,34 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.04031433333333333</v>
+        <v>0.5885005</v>
       </c>
       <c r="N5">
-        <v>0.120943</v>
+        <v>1.177001</v>
       </c>
       <c r="O5">
-        <v>0.001346725574891351</v>
+        <v>0.01936518095051565</v>
       </c>
       <c r="P5">
-        <v>0.001349898011227873</v>
+        <v>0.01299399767240936</v>
       </c>
       <c r="Q5">
-        <v>0.002714404377666666</v>
+        <v>0.01501480559016667</v>
       </c>
       <c r="R5">
-        <v>0.016286426266</v>
+        <v>0.09008883354099999</v>
       </c>
       <c r="S5">
-        <v>0.001346725574891351</v>
+        <v>0.01936518095051565</v>
       </c>
       <c r="T5">
-        <v>0.001349898011227873</v>
+        <v>0.01299399767240936</v>
       </c>
     </row>
   </sheetData>
